--- a/MainBook.xlsx
+++ b/MainBook.xlsx
@@ -8,26 +8,182 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbsc2024\versionSample\54_バージョン管理用dbSheetプロジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2F4EF-4938-4B05-9BD2-F06B4572603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914C71F9-AA35-497C-BA9D-FA6B48277D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
     <sheet name="バージョン管理" sheetId="2" r:id="rId2"/>
+    <sheet name="社員_一覧" sheetId="3" r:id="rId3"/>
+    <sheet name="社員_詳細" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">社員_一覧!$B$13:$T$13</definedName>
+    <definedName name="社員_一覧_更新行数">社員_一覧!$W$4</definedName>
+    <definedName name="社員_一覧_書式コピー先範囲">社員_一覧!$W$7</definedName>
+    <definedName name="社員_一覧_書式範囲">社員_一覧!$B$10:$T$10</definedName>
+    <definedName name="社員_一覧_展開位置">社員_一覧!$E$14</definedName>
+    <definedName name="社員_一覧_読込行数">社員_一覧!$W$3</definedName>
+    <definedName name="社員_一覧_編集位置">社員_一覧!$B$14</definedName>
+    <definedName name="社員_一覧_列名範囲">社員_一覧!$A$1</definedName>
+    <definedName name="社員_詳細_DBS_CREATE_DATE">社員_詳細!$F$4</definedName>
+    <definedName name="社員_詳細_DBS_CREATE_USER">社員_詳細!$F$3</definedName>
+    <definedName name="社員_詳細_DBS_STATUS">社員_詳細!$F$2</definedName>
+    <definedName name="社員_詳細_DBS_UPDATE_DATE">社員_詳細!$F$6</definedName>
+    <definedName name="社員_詳細_DBS_UPDATE_USER">社員_詳細!$F$5</definedName>
+    <definedName name="社員_詳細_フリガナ">社員_詳細!$C$4</definedName>
+    <definedName name="社員_詳細_プロフィール">社員_詳細!$C$17</definedName>
+    <definedName name="社員_詳細_更新後クリア">社員_詳細!$F$9</definedName>
+    <definedName name="社員_詳細_更新後読込">社員_詳細!$F$8</definedName>
+    <definedName name="社員_詳細_在籍支社">社員_詳細!$C$6</definedName>
+    <definedName name="社員_詳細_削除">社員_詳細!$C$2</definedName>
+    <definedName name="社員_詳細_氏名">社員_詳細!$C$5</definedName>
+    <definedName name="社員_詳細_自宅住所1">社員_詳細!$C$12</definedName>
+    <definedName name="社員_詳細_自宅住所2">社員_詳細!$C$13</definedName>
+    <definedName name="社員_詳細_自宅電話番号">社員_詳細!$C$14</definedName>
+    <definedName name="社員_詳細_自宅都道府県">社員_詳細!$C$11</definedName>
+    <definedName name="社員_詳細_自宅郵便番号">社員_詳細!$C$10</definedName>
+    <definedName name="社員_詳細_写真">社員_詳細!$C$16</definedName>
+    <definedName name="社員_詳細_社員コード">社員_詳細!$C$3</definedName>
+    <definedName name="社員_詳細_誕生日">社員_詳細!$C$8</definedName>
+    <definedName name="社員_詳細_内線">社員_詳細!$C$15</definedName>
+    <definedName name="社員_詳細_入社日">社員_詳細!$C$9</definedName>
+    <definedName name="社員_詳細_部署名">社員_詳細!$C$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <t>実行タスク</t>
+  </si>
+  <si>
+    <t>社員コード</t>
+  </si>
+  <si>
+    <t>フリガナ</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>在籍支社</t>
+  </si>
+  <si>
+    <t>部署名</t>
+  </si>
+  <si>
+    <t>誕生日</t>
+  </si>
+  <si>
+    <t>入社日</t>
+  </si>
+  <si>
+    <t>自宅郵便番号</t>
+  </si>
+  <si>
+    <t>自宅都道府県</t>
+  </si>
+  <si>
+    <t>自宅住所1</t>
+  </si>
+  <si>
+    <t>自宅住所2</t>
+  </si>
+  <si>
+    <t>自宅電話番号</t>
+  </si>
+  <si>
+    <t>内線</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>プロフィール</t>
+  </si>
+  <si>
+    <t>DBS_STATUS</t>
+  </si>
+  <si>
+    <t>DBS#6</t>
+  </si>
+  <si>
+    <t>余白行数</t>
+  </si>
+  <si>
+    <t>読込行数</t>
+  </si>
+  <si>
+    <t>更新行数</t>
+  </si>
+  <si>
+    <t>書式コピー列数</t>
+  </si>
+  <si>
+    <t>書式コピー先最終セル</t>
+  </si>
+  <si>
+    <t>書式コピー先範囲</t>
+  </si>
+  <si>
+    <t>※この範囲は非表示にする必要があります。</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>DBS_CREATE_USER</t>
+  </si>
+  <si>
+    <t>DBS_CREATE_DATE</t>
+  </si>
+  <si>
+    <t>DBS_UPDATE_USER</t>
+  </si>
+  <si>
+    <t>DBS_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>更新後読込</t>
+  </si>
+  <si>
+    <t>更新後クリア</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +198,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +241,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -361,11 +587,592 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F9E47F-44E1-4906-AD57-CDAC16D6ED20}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A90C3-0CFB-44F2-9EB4-9873F48CF8B0}">
+  <dimension ref="A1:X14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="3" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.58203125" customWidth="1"/>
+    <col min="19" max="19" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5">
+        <v>10</v>
+      </c>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="5">
+        <f>社員_一覧_読込行数+W2</f>
+        <v>10</v>
+      </c>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="5">
+        <f>COLUMNS(社員_一覧_書式範囲)</f>
+        <v>19</v>
+      </c>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="5" t="str">
+        <f>ADDRESS(ROW(社員_一覧_編集位置)+W4-IF(社員_一覧_更新行数=0,0,1),COLUMN(社員_一覧_編集位置)+W5-1,4)</f>
+        <v>T23</v>
+      </c>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="5" t="str">
+        <f ca="1">CELL("address", 社員_一覧_編集位置)&amp;":"&amp;W6</f>
+        <v>$B$14:T23</v>
+      </c>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="str">
+        <f>IF(E10="","",HYPERLINK("#'社員_一覧'!D"&amp;ROW(),"詳細"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="6">
+        <f>IF(B10="削除",99,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B13:T13" xr:uid="{411A90C3-0CFB-44F2-9EB4-9873F48CF8B0}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{7BE35FB7-31CD-4209-9F72-580F54029111}">
+      <formula1>" ,削除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CA3EA0-67F9-4772-A39E-BEB743CC558B}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7">
+        <f>IF(社員_詳細_削除="削除",99,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <f>社員_詳細_削除=""</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <f>社員_詳細_削除="削除"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{03E2964F-5300-4E24-AC42-9AC372C6DD34}">
+      <formula1>" ,削除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MainBook.xlsx
+++ b/MainBook.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbsc2024\versionSample\54_バージョン管理用dbSheetプロジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914C71F9-AA35-497C-BA9D-FA6B48277D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C5227-2D5B-4619-864E-20ED97F3E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
-    <sheet name="バージョン管理" sheetId="2" r:id="rId2"/>
+    <sheet name="商品" sheetId="5" r:id="rId2"/>
     <sheet name="社員_一覧" sheetId="3" r:id="rId3"/>
     <sheet name="社員_詳細" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -50,6 +50,7 @@
     <definedName name="社員_詳細_内線">社員_詳細!$C$15</definedName>
     <definedName name="社員_詳細_入社日">社員_詳細!$C$9</definedName>
     <definedName name="社員_詳細_部署名">社員_詳細!$C$7</definedName>
+    <definedName name="商品_展開先">商品!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -181,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -278,7 +279,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -288,7 +289,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -584,10 +585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F9E47F-44E1-4906-AD57-CDAC16D6ED20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142F08A4-580A-417E-8378-18BFB614EC69}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -600,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A90C3-0CFB-44F2-9EB4-9873F48CF8B0}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1021,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CA3EA0-67F9-4772-A39E-BEB743CC558B}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>

--- a/MainBook.xlsx
+++ b/MainBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbsc2024\versionSample\54_バージョン管理用dbSheetプロジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C5227-2D5B-4619-864E-20ED97F3E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFCD41-F241-4FC6-BEAE-06A597589B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>削除</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t>更新後クリア</t>
+  </si>
+  <si>
+    <t>商品コード</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>仕入先コード</t>
+  </si>
+  <si>
+    <t>区分コード</t>
+  </si>
+  <si>
+    <t>梱包単位</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>在庫</t>
+  </si>
+  <si>
+    <t>発注済</t>
+  </si>
+  <si>
+    <t>発注点</t>
+  </si>
+  <si>
+    <t>生産中止</t>
   </si>
 </sst>
 </file>
@@ -261,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +322,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -586,14 +617,443 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142F08A4-580A-417E-8378-18BFB614EC69}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:17">
+      <c r="B3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -603,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A90C3-0CFB-44F2-9EB4-9873F48CF8B0}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>

--- a/MainBook.xlsx
+++ b/MainBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dbsc2024\versionSample\54_バージョン管理用dbSheetプロジェクト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFCD41-F241-4FC6-BEAE-06A597589B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C5227-2D5B-4619-864E-20ED97F3E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>削除</t>
   </si>
@@ -175,36 +175,6 @@
   </si>
   <si>
     <t>更新後クリア</t>
-  </si>
-  <si>
-    <t>商品コード</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>仕入先コード</t>
-  </si>
-  <si>
-    <t>区分コード</t>
-  </si>
-  <si>
-    <t>梱包単位</t>
-  </si>
-  <si>
-    <t>単価</t>
-  </si>
-  <si>
-    <t>在庫</t>
-  </si>
-  <si>
-    <t>発注済</t>
-  </si>
-  <si>
-    <t>発注点</t>
-  </si>
-  <si>
-    <t>生産中止</t>
   </si>
 </sst>
 </file>
@@ -291,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -322,7 +292,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -617,443 +586,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142F08A4-580A-417E-8378-18BFB614EC69}">
-  <dimension ref="B3:Q24"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="3" spans="2:17">
-      <c r="B3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1063,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A90C3-0CFB-44F2-9EB4-9873F48CF8B0}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
